--- a/Code/Results/Cases/Case_4_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.19330676550118</v>
+        <v>13.8534432268976</v>
       </c>
       <c r="C2">
-        <v>18.79330036565191</v>
+        <v>10.39168442072861</v>
       </c>
       <c r="D2">
-        <v>7.286852619400083</v>
+        <v>5.976770098523475</v>
       </c>
       <c r="E2">
-        <v>10.52995940224392</v>
+        <v>10.52790139354394</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>42.43598432122899</v>
+        <v>35.46075646796771</v>
       </c>
       <c r="H2">
-        <v>11.90893091918072</v>
+        <v>15.12824060728165</v>
       </c>
       <c r="I2">
-        <v>16.62242248852281</v>
+        <v>21.07315753841517</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.15652826618312</v>
+        <v>15.55281626978474</v>
       </c>
       <c r="N2">
-        <v>10.98564271872706</v>
+        <v>17.2151699519957</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.65571179371717</v>
+        <v>13.25581190869262</v>
       </c>
       <c r="C3">
-        <v>17.47691827731093</v>
+        <v>9.772851118372374</v>
       </c>
       <c r="D3">
-        <v>6.767983634782571</v>
+        <v>5.857385386439433</v>
       </c>
       <c r="E3">
-        <v>9.963182779496114</v>
+        <v>10.43374717795808</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>39.90994651451869</v>
+        <v>34.85203016542171</v>
       </c>
       <c r="H3">
-        <v>11.53429107556714</v>
+        <v>15.11260709436559</v>
       </c>
       <c r="I3">
-        <v>16.19575317213357</v>
+        <v>21.07557214399153</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.83605645586533</v>
+        <v>15.26405463939967</v>
       </c>
       <c r="N3">
-        <v>11.26360111403253</v>
+        <v>17.28817544722711</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.66109840792325</v>
+        <v>12.87808856447221</v>
       </c>
       <c r="C4">
-        <v>16.62708804673466</v>
+        <v>9.374074302528651</v>
       </c>
       <c r="D4">
-        <v>6.433201264107029</v>
+        <v>5.78477962777772</v>
       </c>
       <c r="E4">
-        <v>9.612516158679405</v>
+        <v>10.37912318997537</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>38.33620941142919</v>
+        <v>34.48815133607764</v>
       </c>
       <c r="H4">
-        <v>11.31244502496079</v>
+        <v>15.10718613313491</v>
       </c>
       <c r="I4">
-        <v>15.95108261549556</v>
+        <v>21.08341602865394</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.98465636795657</v>
+        <v>15.08857122033334</v>
       </c>
       <c r="N4">
-        <v>11.43654889524201</v>
+        <v>17.33490896383487</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.24292278083639</v>
+        <v>12.72169906476247</v>
       </c>
       <c r="C5">
-        <v>16.2701660749466</v>
+        <v>9.206970095734441</v>
       </c>
       <c r="D5">
-        <v>6.292639678514429</v>
+        <v>5.755412269310106</v>
       </c>
       <c r="E5">
-        <v>9.469065317644118</v>
+        <v>10.35768466770281</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37.68971472757337</v>
+        <v>34.34257007661797</v>
       </c>
       <c r="H5">
-        <v>11.22412170613909</v>
+        <v>15.10602661655719</v>
       </c>
       <c r="I5">
-        <v>15.85564454720982</v>
+        <v>21.08820567436098</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.62734195601936</v>
+        <v>15.01761936790536</v>
       </c>
       <c r="N5">
-        <v>11.50765682889807</v>
+        <v>17.35443467458533</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.17270372029946</v>
+        <v>12.69558965139847</v>
       </c>
       <c r="C6">
-        <v>16.21025427608839</v>
+        <v>9.17894917364336</v>
       </c>
       <c r="D6">
-        <v>6.269048014484037</v>
+        <v>5.75055044827999</v>
       </c>
       <c r="E6">
-        <v>9.445216250509429</v>
+        <v>10.35417495593601</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>37.58207063290904</v>
+        <v>34.31856586641615</v>
       </c>
       <c r="H6">
-        <v>11.20958203975538</v>
+        <v>15.10589742310776</v>
       </c>
       <c r="I6">
-        <v>15.84005218330176</v>
+        <v>21.08909700751125</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.56738031788964</v>
+        <v>15.00587461711322</v>
       </c>
       <c r="N6">
-        <v>11.51950391284201</v>
+        <v>17.35770603004626</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.65551102804812</v>
+        <v>12.87598907158137</v>
       </c>
       <c r="C7">
-        <v>16.62231762948151</v>
+        <v>9.371839105521259</v>
       </c>
       <c r="D7">
-        <v>6.431322424797482</v>
+        <v>5.784382618794993</v>
       </c>
       <c r="E7">
-        <v>9.610583580862627</v>
+        <v>10.37883071287314</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>38.3275107163746</v>
+        <v>34.48617675204036</v>
       </c>
       <c r="H7">
-        <v>11.31124540997646</v>
+        <v>15.10716624796613</v>
       </c>
       <c r="I7">
-        <v>15.94977834570363</v>
+        <v>21.08347418211684</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.97987963987854</v>
+        <v>15.08761194030353</v>
       </c>
       <c r="N7">
-        <v>11.43750525691978</v>
+        <v>17.33517034296781</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.67353213797828</v>
+        <v>13.64975422698242</v>
       </c>
       <c r="C8">
-        <v>18.34794107379076</v>
+        <v>10.18228467416116</v>
       </c>
       <c r="D8">
-        <v>7.111268923067028</v>
+        <v>5.935488388349103</v>
       </c>
       <c r="E8">
-        <v>10.33514761489267</v>
+        <v>10.49478798266795</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>41.56999309442931</v>
+        <v>35.24894893084165</v>
       </c>
       <c r="H8">
-        <v>11.77806917728194</v>
+        <v>15.12198264669935</v>
       </c>
       <c r="I8">
-        <v>16.47166663914452</v>
+        <v>21.07266628777021</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.70956866693572</v>
+        <v>15.4529351922359</v>
       </c>
       <c r="N8">
-        <v>11.08104497330462</v>
+        <v>17.23994729035712</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.23763942779525</v>
+        <v>15.07232480010911</v>
       </c>
       <c r="C9">
-        <v>21.4097415904068</v>
+        <v>11.61788279233176</v>
       </c>
       <c r="D9">
-        <v>8.319172068628548</v>
+        <v>6.235392379426212</v>
       </c>
       <c r="E9">
-        <v>11.73160823651234</v>
+        <v>10.74651031730509</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>47.73361765136955</v>
+        <v>36.81336013002818</v>
       </c>
       <c r="H9">
-        <v>12.75776289585296</v>
+        <v>15.18419714897792</v>
       </c>
       <c r="I9">
-        <v>17.63595104184213</v>
+        <v>21.10218229397949</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.78652759916412</v>
+        <v>16.17930408712014</v>
       </c>
       <c r="N9">
-        <v>10.39734008958839</v>
+        <v>17.06827468783006</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.62802503340743</v>
+        <v>16.04918826986557</v>
       </c>
       <c r="C10">
-        <v>23.47452692183411</v>
+        <v>12.63120796342894</v>
       </c>
       <c r="D10">
-        <v>9.134685503506461</v>
+        <v>6.455383881747771</v>
       </c>
       <c r="E10">
-        <v>12.84343372477967</v>
+        <v>10.94488958093016</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.15961383072162</v>
+        <v>37.99133818497936</v>
       </c>
       <c r="H10">
-        <v>13.51668898425535</v>
+        <v>15.25007749246841</v>
       </c>
       <c r="I10">
-        <v>18.5823355585827</v>
+        <v>21.15503071520835</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.86666834913523</v>
+        <v>16.7132102905112</v>
       </c>
       <c r="N10">
-        <v>9.900151880468323</v>
+        <v>16.95121526620711</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.66877151558093</v>
+        <v>16.47702355237211</v>
       </c>
       <c r="C11">
-        <v>24.37664377972335</v>
+        <v>13.07268705004991</v>
       </c>
       <c r="D11">
-        <v>9.491183318613144</v>
+        <v>6.554880434645476</v>
       </c>
       <c r="E11">
-        <v>13.38313166786045</v>
+        <v>11.03773192306982</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>54.1885787283429</v>
+        <v>38.53066958106547</v>
       </c>
       <c r="H11">
-        <v>13.87078956635783</v>
+        <v>15.28439960952713</v>
       </c>
       <c r="I11">
-        <v>19.03394982459793</v>
+        <v>21.18586704030343</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.77670549977669</v>
+        <v>16.95497053354235</v>
       </c>
       <c r="N11">
-        <v>9.674055242353834</v>
+        <v>16.89990693365225</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.05642893548024</v>
+        <v>16.63653781546016</v>
       </c>
       <c r="C12">
-        <v>24.71317870116084</v>
+        <v>13.23602098454992</v>
       </c>
       <c r="D12">
-        <v>9.624200504012832</v>
+        <v>6.592434220959102</v>
       </c>
       <c r="E12">
-        <v>13.58546672339127</v>
+        <v>11.07323401385883</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>54.95266099577535</v>
+        <v>38.73517389840377</v>
       </c>
       <c r="H12">
-        <v>14.00621102483988</v>
+        <v>15.29801842475585</v>
       </c>
       <c r="I12">
-        <v>19.20813509161822</v>
+        <v>21.19852116586832</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.11637860529367</v>
+        <v>17.04626509733701</v>
       </c>
       <c r="N12">
-        <v>9.588356148778429</v>
+        <v>16.88075535569419</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.97322246544615</v>
+        <v>16.60229634563528</v>
       </c>
       <c r="C13">
-        <v>24.64092110865695</v>
+        <v>13.20101477830926</v>
       </c>
       <c r="D13">
-        <v>9.595639229223563</v>
+        <v>6.584352445965884</v>
       </c>
       <c r="E13">
-        <v>13.54197715573674</v>
+        <v>11.06557314012479</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>54.78828233460555</v>
+        <v>38.69112170236965</v>
       </c>
       <c r="H13">
-        <v>13.97698516045993</v>
+        <v>15.29505779165783</v>
       </c>
       <c r="I13">
-        <v>19.17047775338981</v>
+        <v>21.19575243287252</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.04343887473551</v>
+        <v>17.02661596368965</v>
       </c>
       <c r="N13">
-        <v>9.606818145721023</v>
+        <v>16.88486766144284</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.70079203039322</v>
+        <v>16.49019755864675</v>
       </c>
       <c r="C14">
-        <v>24.40443082471512</v>
+        <v>13.08620157098473</v>
       </c>
       <c r="D14">
-        <v>9.502165797988667</v>
+        <v>6.557972702766116</v>
       </c>
       <c r="E14">
-        <v>13.39981740058666</v>
+        <v>11.04064596108287</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>54.25152223046204</v>
+        <v>38.54749011091295</v>
       </c>
       <c r="H14">
-        <v>13.88190366013095</v>
+        <v>15.2855076034775</v>
       </c>
       <c r="I14">
-        <v>19.04821575838631</v>
+        <v>21.18688852584443</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.80474790707364</v>
+        <v>16.96248702236119</v>
       </c>
       <c r="N14">
-        <v>9.66700690989901</v>
+        <v>16.89832576375115</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.53308857592416</v>
+        <v>16.42120533581105</v>
       </c>
       <c r="C15">
-        <v>24.25892094930728</v>
+        <v>13.01537506414438</v>
       </c>
       <c r="D15">
-        <v>9.444655873710422</v>
+        <v>6.541797122659175</v>
       </c>
       <c r="E15">
-        <v>13.31248195964786</v>
+        <v>11.02542136506419</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>53.92220414446329</v>
+        <v>38.45954033152846</v>
       </c>
       <c r="H15">
-        <v>13.82383905261851</v>
+        <v>15.27973867162444</v>
       </c>
       <c r="I15">
-        <v>18.9737439630902</v>
+        <v>21.1815863465529</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.65790831367307</v>
+        <v>16.92317029267102</v>
       </c>
       <c r="N15">
-        <v>9.703860820412997</v>
+        <v>16.90660536801752</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.55909247052286</v>
+        <v>16.02088474902363</v>
       </c>
       <c r="C16">
-        <v>23.41484576863682</v>
+        <v>12.60181720462346</v>
       </c>
       <c r="D16">
-        <v>9.111104558126522</v>
+        <v>6.448866419170423</v>
       </c>
       <c r="E16">
-        <v>12.80786601615736</v>
+        <v>10.93887194552251</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.02639547025275</v>
+        <v>37.95614174758981</v>
       </c>
       <c r="H16">
-        <v>13.49373021681287</v>
+        <v>15.24792171729283</v>
       </c>
       <c r="I16">
-        <v>18.55325689034818</v>
+        <v>21.15315225108326</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.80648873537907</v>
+        <v>16.69738006554197</v>
       </c>
       <c r="N16">
-        <v>9.914921662421946</v>
+        <v>16.95460734199475</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.94980381025446</v>
+        <v>15.77097323406336</v>
       </c>
       <c r="C17">
-        <v>22.88769506100008</v>
+        <v>12.34124420457308</v>
       </c>
       <c r="D17">
-        <v>8.902841297422381</v>
+        <v>6.391678959048126</v>
       </c>
       <c r="E17">
-        <v>12.49443793197235</v>
+        <v>10.88642186073509</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.86704714628376</v>
+        <v>37.64804644608358</v>
       </c>
       <c r="H17">
-        <v>13.29352049983744</v>
+        <v>15.22951524751659</v>
       </c>
       <c r="I17">
-        <v>18.30079218174796</v>
+        <v>21.13744965696556</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.27507446656092</v>
+        <v>16.5585106676446</v>
       </c>
       <c r="N17">
-        <v>10.04435709386743</v>
+        <v>16.98455142278258</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.5949490643546</v>
+        <v>15.62567929722182</v>
       </c>
       <c r="C18">
-        <v>22.58097619779793</v>
+        <v>12.18883902691744</v>
       </c>
       <c r="D18">
-        <v>8.781683850882716</v>
+        <v>6.358734049006445</v>
       </c>
       <c r="E18">
-        <v>12.31267686784486</v>
+        <v>10.85650033850177</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>50.20914211582072</v>
+        <v>37.47117732476043</v>
       </c>
       <c r="H18">
-        <v>13.17919423996908</v>
+        <v>15.21933834950213</v>
       </c>
       <c r="I18">
-        <v>18.15755749107537</v>
+        <v>21.12905763545139</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.96599092003647</v>
+        <v>16.47853695361048</v>
       </c>
       <c r="N18">
-        <v>10.11881813060767</v>
+        <v>17.00195740459522</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.47403684151104</v>
+        <v>15.57622272108694</v>
       </c>
       <c r="C19">
-        <v>22.47651497684575</v>
+        <v>12.13680204584327</v>
       </c>
       <c r="D19">
-        <v>8.740423801826076</v>
+        <v>6.347571763441273</v>
       </c>
       <c r="E19">
-        <v>12.25087460797941</v>
+        <v>10.84641261243462</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.98596548504315</v>
+        <v>37.4113577555033</v>
       </c>
       <c r="H19">
-        <v>13.14062644762109</v>
+        <v>15.21596315869172</v>
       </c>
       <c r="I19">
-        <v>18.10939650855147</v>
+        <v>21.12632609028179</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.86074400276888</v>
+        <v>16.45144504838013</v>
       </c>
       <c r="N19">
-        <v>10.14403431110445</v>
+        <v>17.00788223869607</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01511806039807</v>
+        <v>15.79773822690451</v>
       </c>
       <c r="C20">
-        <v>22.94417317804515</v>
+        <v>12.36924439866077</v>
       </c>
       <c r="D20">
-        <v>8.925152355202041</v>
+        <v>6.397772361752796</v>
       </c>
       <c r="E20">
-        <v>12.5279551991405</v>
+        <v>10.89197997022125</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.98861238743617</v>
+        <v>37.68081028276097</v>
       </c>
       <c r="H20">
-        <v>13.31474703770029</v>
+        <v>15.23143223982001</v>
       </c>
       <c r="I20">
-        <v>18.32746206069962</v>
+        <v>21.13905501554485</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.33199735463624</v>
+        <v>16.57330456884749</v>
       </c>
       <c r="N20">
-        <v>10.03057774875659</v>
+        <v>16.98134490232736</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.78098432989295</v>
+        <v>16.52319233094841</v>
       </c>
       <c r="C21">
-        <v>24.47402926502998</v>
+        <v>13.12002917903645</v>
       </c>
       <c r="D21">
-        <v>9.529674102371329</v>
+        <v>6.565724731254445</v>
       </c>
       <c r="E21">
-        <v>13.44162661541932</v>
+        <v>11.04795855643271</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>54.40929260402604</v>
+        <v>38.58967260019917</v>
       </c>
       <c r="H21">
-        <v>13.90979467200065</v>
+        <v>15.28829588818515</v>
       </c>
       <c r="I21">
-        <v>19.08403983724964</v>
+        <v>21.18946555970107</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.87498892422465</v>
+        <v>16.98133089051302</v>
       </c>
       <c r="N21">
-        <v>9.649330988538102</v>
+        <v>16.89436526660898</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.89762106660653</v>
+        <v>16.98271750441252</v>
       </c>
       <c r="C22">
-        <v>25.44443223780872</v>
+        <v>13.5883101546467</v>
       </c>
       <c r="D22">
-        <v>9.91327393891997</v>
+        <v>6.674754977935797</v>
       </c>
       <c r="E22">
-        <v>14.02701185285341</v>
+        <v>11.15189498791216</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.62592887271786</v>
+        <v>39.18514798237062</v>
       </c>
       <c r="H22">
-        <v>14.30650070624854</v>
+        <v>15.32908116776201</v>
       </c>
       <c r="I22">
-        <v>19.5970645890496</v>
+        <v>21.22810596335534</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.85479017460634</v>
+        <v>17.24647412651222</v>
       </c>
       <c r="N22">
-        <v>9.399642407033285</v>
+        <v>16.83913740538651</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.30498584942676</v>
+        <v>16.73883085283013</v>
       </c>
       <c r="C23">
-        <v>24.92910772984181</v>
+        <v>13.34042295447347</v>
       </c>
       <c r="D23">
-        <v>9.709554208396076</v>
+        <v>6.616643564227753</v>
       </c>
       <c r="E23">
-        <v>13.7155782637607</v>
+        <v>11.0962492992945</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>55.44491771581674</v>
+        <v>38.86726893493108</v>
       </c>
       <c r="H23">
-        <v>14.09403009213059</v>
+        <v>15.30698353175561</v>
       </c>
       <c r="I23">
-        <v>19.32150225297106</v>
+        <v>21.20696219801017</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.33437314959976</v>
+        <v>17.10513172280838</v>
       </c>
       <c r="N23">
-        <v>9.532986172961659</v>
+        <v>16.86846598982228</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.98560373090161</v>
+        <v>15.78564279942215</v>
       </c>
       <c r="C24">
-        <v>22.91865081906312</v>
+        <v>12.3565936056075</v>
       </c>
       <c r="D24">
-        <v>8.915069969358763</v>
+        <v>6.395017740273204</v>
       </c>
       <c r="E24">
-        <v>12.51280693929431</v>
+        <v>10.88946642182862</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.93366117705238</v>
+        <v>37.66599692815827</v>
       </c>
       <c r="H24">
-        <v>13.30514810374457</v>
+        <v>15.23056430500863</v>
       </c>
       <c r="I24">
-        <v>18.31539866695239</v>
+        <v>21.13832725303108</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.30627364556958</v>
+        <v>16.56661666203086</v>
       </c>
       <c r="N24">
-        <v>10.03680723778279</v>
+        <v>16.982793975959</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.31441593217598</v>
+        <v>14.69881314756188</v>
       </c>
       <c r="C25">
-        <v>20.61478986022734</v>
+        <v>11.24649810382023</v>
       </c>
       <c r="D25">
-        <v>8.005386594667726</v>
+        <v>6.154143285378183</v>
       </c>
       <c r="E25">
-        <v>11.35674369070158</v>
+        <v>10.67594633909622</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>46.08838042884801</v>
+        <v>36.38416765993618</v>
       </c>
       <c r="H25">
-        <v>12.4859037942452</v>
+        <v>15.16381730968904</v>
       </c>
       <c r="I25">
-        <v>17.30539393511545</v>
+        <v>21.08873798707014</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.98673279092839</v>
+        <v>15.98234689642252</v>
       </c>
       <c r="N25">
-        <v>10.58107464681066</v>
+        <v>17.11311608575199</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.8534432268976</v>
+        <v>22.19330676550112</v>
       </c>
       <c r="C2">
-        <v>10.39168442072861</v>
+        <v>18.79330036565195</v>
       </c>
       <c r="D2">
-        <v>5.976770098523475</v>
+        <v>7.286852619399962</v>
       </c>
       <c r="E2">
-        <v>10.52790139354394</v>
+        <v>10.52995940224392</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.46075646796771</v>
+        <v>42.43598432122905</v>
       </c>
       <c r="H2">
-        <v>15.12824060728165</v>
+        <v>11.90893091918075</v>
       </c>
       <c r="I2">
-        <v>21.07315753841517</v>
+        <v>16.62242248852289</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.55281626978474</v>
+        <v>19.1565282661831</v>
       </c>
       <c r="N2">
-        <v>17.2151699519957</v>
+        <v>10.98564271872706</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.25581190869262</v>
+        <v>20.65571179371717</v>
       </c>
       <c r="C3">
-        <v>9.772851118372374</v>
+        <v>17.47691827731105</v>
       </c>
       <c r="D3">
-        <v>5.857385386439433</v>
+        <v>6.767983634782601</v>
       </c>
       <c r="E3">
-        <v>10.43374717795808</v>
+        <v>9.963182779496126</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.85203016542171</v>
+        <v>39.90994651451874</v>
       </c>
       <c r="H3">
-        <v>15.11260709436559</v>
+        <v>11.53429107556715</v>
       </c>
       <c r="I3">
-        <v>21.07557214399153</v>
+        <v>16.19575317213359</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.26405463939967</v>
+        <v>17.83605645586534</v>
       </c>
       <c r="N3">
-        <v>17.28817544722711</v>
+        <v>11.26360111403254</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.87808856447221</v>
+        <v>19.66109840792327</v>
       </c>
       <c r="C4">
-        <v>9.374074302528651</v>
+        <v>16.62708804673462</v>
       </c>
       <c r="D4">
-        <v>5.78477962777772</v>
+        <v>6.433201264106926</v>
       </c>
       <c r="E4">
-        <v>10.37912318997537</v>
+        <v>9.612516158679398</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.48815133607764</v>
+        <v>38.33620941142924</v>
       </c>
       <c r="H4">
-        <v>15.10718613313491</v>
+        <v>11.31244502496083</v>
       </c>
       <c r="I4">
-        <v>21.08341602865394</v>
+        <v>15.95108261549568</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.08857122033334</v>
+        <v>16.98465636795654</v>
       </c>
       <c r="N4">
-        <v>17.33490896383487</v>
+        <v>11.43654889524211</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.72169906476247</v>
+        <v>19.2429227808364</v>
       </c>
       <c r="C5">
-        <v>9.206970095734441</v>
+        <v>16.27016607494663</v>
       </c>
       <c r="D5">
-        <v>5.755412269310106</v>
+        <v>6.292639678514438</v>
       </c>
       <c r="E5">
-        <v>10.35768466770281</v>
+        <v>9.469065317644047</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34.34257007661797</v>
+        <v>37.68971472757345</v>
       </c>
       <c r="H5">
-        <v>15.10602661655719</v>
+        <v>11.22412170613909</v>
       </c>
       <c r="I5">
-        <v>21.08820567436098</v>
+        <v>15.85564454720986</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.01761936790536</v>
+        <v>16.62734195601938</v>
       </c>
       <c r="N5">
-        <v>17.35443467458533</v>
+        <v>11.50765682889807</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.69558965139847</v>
+        <v>19.17270372029946</v>
       </c>
       <c r="C6">
-        <v>9.17894917364336</v>
+        <v>16.21025427608827</v>
       </c>
       <c r="D6">
-        <v>5.75055044827999</v>
+        <v>6.269048014484037</v>
       </c>
       <c r="E6">
-        <v>10.35417495593601</v>
+        <v>9.445216250509366</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>34.31856586641615</v>
+        <v>37.58207063290904</v>
       </c>
       <c r="H6">
-        <v>15.10589742310776</v>
+        <v>11.20958203975539</v>
       </c>
       <c r="I6">
-        <v>21.08909700751125</v>
+        <v>15.84005218330174</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.00587461711322</v>
+        <v>16.56738031788969</v>
       </c>
       <c r="N6">
-        <v>17.35770603004626</v>
+        <v>11.51950391284198</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.87598907158137</v>
+        <v>19.6555110280482</v>
       </c>
       <c r="C7">
-        <v>9.371839105521259</v>
+        <v>16.62231762948151</v>
       </c>
       <c r="D7">
-        <v>5.784382618794993</v>
+        <v>6.4313224247976</v>
       </c>
       <c r="E7">
-        <v>10.37883071287314</v>
+        <v>9.610583580862606</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.48617675204036</v>
+        <v>38.32751071637463</v>
       </c>
       <c r="H7">
-        <v>15.10716624796613</v>
+        <v>11.31124540997648</v>
       </c>
       <c r="I7">
-        <v>21.08347418211684</v>
+        <v>15.94977834570366</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.08761194030353</v>
+        <v>16.97987963987857</v>
       </c>
       <c r="N7">
-        <v>17.33517034296781</v>
+        <v>11.43750525691988</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.64975422698242</v>
+        <v>21.67353213797827</v>
       </c>
       <c r="C8">
-        <v>10.18228467416116</v>
+        <v>18.34794107379073</v>
       </c>
       <c r="D8">
-        <v>5.935488388349103</v>
+        <v>7.111268923067052</v>
       </c>
       <c r="E8">
-        <v>10.49478798266795</v>
+        <v>10.33514761489267</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.24894893084165</v>
+        <v>41.56999309442932</v>
       </c>
       <c r="H8">
-        <v>15.12198264669935</v>
+        <v>11.77806917728195</v>
       </c>
       <c r="I8">
-        <v>21.07266628777021</v>
+        <v>16.4716666391445</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.4529351922359</v>
+        <v>18.70956866693573</v>
       </c>
       <c r="N8">
-        <v>17.23994729035712</v>
+        <v>11.08104497330459</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.07232480010911</v>
+        <v>25.23763942779522</v>
       </c>
       <c r="C9">
-        <v>11.61788279233176</v>
+        <v>21.4097415904066</v>
       </c>
       <c r="D9">
-        <v>6.235392379426212</v>
+        <v>8.319172068628523</v>
       </c>
       <c r="E9">
-        <v>10.74651031730509</v>
+        <v>11.73160823651232</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>36.81336013002818</v>
+        <v>47.73361765136945</v>
       </c>
       <c r="H9">
-        <v>15.18419714897792</v>
+        <v>12.75776289585299</v>
       </c>
       <c r="I9">
-        <v>21.10218229397949</v>
+        <v>17.63595104184216</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.17930408712014</v>
+        <v>21.78652759916404</v>
       </c>
       <c r="N9">
-        <v>17.06827468783006</v>
+        <v>10.39734008958843</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.04918826986557</v>
+        <v>27.62802503340746</v>
       </c>
       <c r="C10">
-        <v>12.63120796342894</v>
+        <v>23.47452692183412</v>
       </c>
       <c r="D10">
-        <v>6.455383881747771</v>
+        <v>9.134685503506493</v>
       </c>
       <c r="E10">
-        <v>10.94488958093016</v>
+        <v>12.84343372477968</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>37.99133818497936</v>
+        <v>52.1596138307217</v>
       </c>
       <c r="H10">
-        <v>15.25007749246841</v>
+        <v>13.51668898425539</v>
       </c>
       <c r="I10">
-        <v>21.15503071520835</v>
+        <v>18.58233555858272</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.7132102905112</v>
+        <v>23.86666834913524</v>
       </c>
       <c r="N10">
-        <v>16.95121526620711</v>
+        <v>9.900151880468359</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.47702355237211</v>
+        <v>28.66877151558094</v>
       </c>
       <c r="C11">
-        <v>13.07268705004991</v>
+        <v>24.37664377972335</v>
       </c>
       <c r="D11">
-        <v>6.554880434645476</v>
+        <v>9.49118331861316</v>
       </c>
       <c r="E11">
-        <v>11.03773192306982</v>
+        <v>13.38313166786047</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>38.53066958106547</v>
+        <v>54.1885787283429</v>
       </c>
       <c r="H11">
-        <v>15.28439960952713</v>
+        <v>13.87078956635783</v>
       </c>
       <c r="I11">
-        <v>21.18586704030343</v>
+        <v>19.03394982459793</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.95497053354235</v>
+        <v>24.77670549977671</v>
       </c>
       <c r="N11">
-        <v>16.89990693365225</v>
+        <v>9.674055242353834</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.63653781546016</v>
+        <v>29.05642893548035</v>
       </c>
       <c r="C12">
-        <v>13.23602098454992</v>
+        <v>24.71317870116084</v>
       </c>
       <c r="D12">
-        <v>6.592434220959102</v>
+        <v>9.624200504012817</v>
       </c>
       <c r="E12">
-        <v>11.07323401385883</v>
+        <v>13.58546672339127</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>38.73517389840377</v>
+        <v>54.95266099577547</v>
       </c>
       <c r="H12">
-        <v>15.29801842475585</v>
+        <v>14.00621102483987</v>
       </c>
       <c r="I12">
-        <v>21.19852116586832</v>
+        <v>19.2081350916182</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.04626509733701</v>
+        <v>25.11637860529374</v>
       </c>
       <c r="N12">
-        <v>16.88075535569419</v>
+        <v>9.588356148778427</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.60229634563528</v>
+        <v>28.97322246544617</v>
       </c>
       <c r="C13">
-        <v>13.20101477830926</v>
+        <v>24.640921108657</v>
       </c>
       <c r="D13">
-        <v>6.584352445965884</v>
+        <v>9.595639229223632</v>
       </c>
       <c r="E13">
-        <v>11.06557314012479</v>
+        <v>13.54197715573675</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.69112170236965</v>
+        <v>54.78828233460565</v>
       </c>
       <c r="H13">
-        <v>15.29505779165783</v>
+        <v>13.97698516045994</v>
       </c>
       <c r="I13">
-        <v>21.19575243287252</v>
+        <v>19.17047775338981</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.02661596368965</v>
+        <v>25.04343887473554</v>
       </c>
       <c r="N13">
-        <v>16.88486766144284</v>
+        <v>9.606818145720961</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.49019755864675</v>
+        <v>28.70079203039321</v>
       </c>
       <c r="C14">
-        <v>13.08620157098473</v>
+        <v>24.40443082471507</v>
       </c>
       <c r="D14">
-        <v>6.557972702766116</v>
+        <v>9.502165797988802</v>
       </c>
       <c r="E14">
-        <v>11.04064596108287</v>
+        <v>13.39981740058662</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>38.54749011091295</v>
+        <v>54.25152223046214</v>
       </c>
       <c r="H14">
-        <v>15.2855076034775</v>
+        <v>13.88190366013099</v>
       </c>
       <c r="I14">
-        <v>21.18688852584443</v>
+        <v>19.0482157583864</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.96248702236119</v>
+        <v>24.80474790707358</v>
       </c>
       <c r="N14">
-        <v>16.89832576375115</v>
+        <v>9.667006909899117</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.42120533581105</v>
+        <v>28.53308857592406</v>
       </c>
       <c r="C15">
-        <v>13.01537506414438</v>
+        <v>24.25892094930735</v>
       </c>
       <c r="D15">
-        <v>6.541797122659175</v>
+        <v>9.444655873710422</v>
       </c>
       <c r="E15">
-        <v>11.02542136506419</v>
+        <v>13.31248195964782</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.45954033152846</v>
+        <v>53.92220414446319</v>
       </c>
       <c r="H15">
-        <v>15.27973867162444</v>
+        <v>13.82383905261849</v>
       </c>
       <c r="I15">
-        <v>21.1815863465529</v>
+        <v>18.97374396309018</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.92317029267102</v>
+        <v>24.65790831367301</v>
       </c>
       <c r="N15">
-        <v>16.90660536801752</v>
+        <v>9.703860820412928</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.02088474902363</v>
+        <v>27.55909247052271</v>
       </c>
       <c r="C16">
-        <v>12.60181720462346</v>
+        <v>23.4148457686369</v>
       </c>
       <c r="D16">
-        <v>6.448866419170423</v>
+        <v>9.111104558126481</v>
       </c>
       <c r="E16">
-        <v>10.93887194552251</v>
+        <v>12.80786601615731</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>37.95614174758981</v>
+        <v>52.02639547025263</v>
       </c>
       <c r="H16">
-        <v>15.24792171729283</v>
+        <v>13.4937302168129</v>
       </c>
       <c r="I16">
-        <v>21.15315225108326</v>
+        <v>18.55325689034825</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.69738006554197</v>
+        <v>23.80648873537899</v>
       </c>
       <c r="N16">
-        <v>16.95460734199475</v>
+        <v>9.914921662422044</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.77097323406336</v>
+        <v>26.94980381025451</v>
       </c>
       <c r="C17">
-        <v>12.34124420457308</v>
+        <v>22.88769506100003</v>
       </c>
       <c r="D17">
-        <v>6.391678959048126</v>
+        <v>8.902841297422292</v>
       </c>
       <c r="E17">
-        <v>10.88642186073509</v>
+        <v>12.49443793197232</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.64804644608358</v>
+        <v>50.86704714628386</v>
       </c>
       <c r="H17">
-        <v>15.22951524751659</v>
+        <v>13.29352049983745</v>
       </c>
       <c r="I17">
-        <v>21.13744965696556</v>
+        <v>18.30079218174799</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.5585106676446</v>
+        <v>23.27507446656089</v>
       </c>
       <c r="N17">
-        <v>16.98455142278258</v>
+        <v>10.04435709386737</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62567929722182</v>
+        <v>26.59494906435459</v>
       </c>
       <c r="C18">
-        <v>12.18883902691744</v>
+        <v>22.58097619779786</v>
       </c>
       <c r="D18">
-        <v>6.358734049006445</v>
+        <v>8.781683850882658</v>
       </c>
       <c r="E18">
-        <v>10.85650033850177</v>
+        <v>12.31267686784479</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.47117732476043</v>
+        <v>50.20914211582084</v>
       </c>
       <c r="H18">
-        <v>15.21933834950213</v>
+        <v>13.17919423996913</v>
       </c>
       <c r="I18">
-        <v>21.12905763545139</v>
+        <v>18.15755749107548</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.47853695361048</v>
+        <v>22.96599092003642</v>
       </c>
       <c r="N18">
-        <v>17.00195740459522</v>
+        <v>10.11881813060771</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.57622272108694</v>
+        <v>26.47403684151096</v>
       </c>
       <c r="C19">
-        <v>12.13680204584327</v>
+        <v>22.47651497684582</v>
       </c>
       <c r="D19">
-        <v>6.347571763441273</v>
+        <v>8.740423801826157</v>
       </c>
       <c r="E19">
-        <v>10.84641261243462</v>
+        <v>12.25087460797944</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>37.4113577555033</v>
+        <v>49.98596548504308</v>
       </c>
       <c r="H19">
-        <v>15.21596315869172</v>
+        <v>13.14062644762113</v>
       </c>
       <c r="I19">
-        <v>21.12632609028179</v>
+        <v>18.10939650855153</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.45144504838013</v>
+        <v>22.86074400276886</v>
       </c>
       <c r="N19">
-        <v>17.00788223869607</v>
+        <v>10.14403431110451</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.79773822690451</v>
+        <v>27.01511806039809</v>
       </c>
       <c r="C20">
-        <v>12.36924439866077</v>
+        <v>22.94417317804494</v>
       </c>
       <c r="D20">
-        <v>6.397772361752796</v>
+        <v>8.92515235520205</v>
       </c>
       <c r="E20">
-        <v>10.89197997022125</v>
+        <v>12.52795519914051</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>37.68081028276097</v>
+        <v>50.98861238743611</v>
       </c>
       <c r="H20">
-        <v>15.23143223982001</v>
+        <v>13.31474703770027</v>
       </c>
       <c r="I20">
-        <v>21.13905501554485</v>
+        <v>18.32746206069961</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.57330456884749</v>
+        <v>23.33199735463621</v>
       </c>
       <c r="N20">
-        <v>16.98134490232736</v>
+        <v>10.03057774875662</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.52319233094841</v>
+        <v>28.78098432989309</v>
       </c>
       <c r="C21">
-        <v>13.12002917903645</v>
+        <v>24.47402926503009</v>
       </c>
       <c r="D21">
-        <v>6.565724731254445</v>
+        <v>9.529674102371327</v>
       </c>
       <c r="E21">
-        <v>11.04795855643271</v>
+        <v>13.44162661541937</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>38.58967260019917</v>
+        <v>54.40929260402625</v>
       </c>
       <c r="H21">
-        <v>15.28829588818515</v>
+        <v>13.90979467200064</v>
       </c>
       <c r="I21">
-        <v>21.18946555970107</v>
+        <v>19.08403983724961</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.98133089051302</v>
+        <v>24.87498892422476</v>
       </c>
       <c r="N21">
-        <v>16.89436526660898</v>
+        <v>9.649330988537974</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.98271750441252</v>
+        <v>29.8976210666066</v>
       </c>
       <c r="C22">
-        <v>13.5883101546467</v>
+        <v>25.44443223780881</v>
       </c>
       <c r="D22">
-        <v>6.674754977935797</v>
+        <v>9.913273938919886</v>
       </c>
       <c r="E22">
-        <v>11.15189498791216</v>
+        <v>14.02701185285334</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>39.18514798237062</v>
+        <v>56.62592887271801</v>
       </c>
       <c r="H22">
-        <v>15.32908116776201</v>
+        <v>14.30650070624855</v>
       </c>
       <c r="I22">
-        <v>21.22810596335534</v>
+        <v>19.5970645890496</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.24647412651222</v>
+        <v>25.85479017460635</v>
       </c>
       <c r="N22">
-        <v>16.83913740538651</v>
+        <v>9.399642407033191</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.73883085283013</v>
+        <v>29.30498584942676</v>
       </c>
       <c r="C23">
-        <v>13.34042295447347</v>
+        <v>24.9291077298417</v>
       </c>
       <c r="D23">
-        <v>6.616643564227753</v>
+        <v>9.709554208396119</v>
       </c>
       <c r="E23">
-        <v>11.0962492992945</v>
+        <v>13.71557826376074</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>38.86726893493108</v>
+        <v>55.44491771581674</v>
       </c>
       <c r="H23">
-        <v>15.30698353175561</v>
+        <v>14.09403009213059</v>
       </c>
       <c r="I23">
-        <v>21.20696219801017</v>
+        <v>19.32150225297107</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.10513172280838</v>
+        <v>25.33437314959976</v>
       </c>
       <c r="N23">
-        <v>16.86846598982228</v>
+        <v>9.532986172961659</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.78564279942215</v>
+        <v>26.98560373090169</v>
       </c>
       <c r="C24">
-        <v>12.3565936056075</v>
+        <v>22.91865081906316</v>
       </c>
       <c r="D24">
-        <v>6.395017740273204</v>
+        <v>8.915069969358782</v>
       </c>
       <c r="E24">
-        <v>10.88946642182862</v>
+        <v>12.5128069392943</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>37.66599692815827</v>
+        <v>50.93366117705256</v>
       </c>
       <c r="H24">
-        <v>15.23056430500863</v>
+        <v>13.30514810374459</v>
       </c>
       <c r="I24">
-        <v>21.13832725303108</v>
+        <v>18.31539866695242</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.56661666203086</v>
+        <v>23.30627364556959</v>
       </c>
       <c r="N24">
-        <v>16.982793975959</v>
+        <v>10.03680723778273</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.69881314756188</v>
+        <v>24.31441593217593</v>
       </c>
       <c r="C25">
-        <v>11.24649810382023</v>
+        <v>20.61478986022726</v>
       </c>
       <c r="D25">
-        <v>6.154143285378183</v>
+        <v>8.005386594667709</v>
       </c>
       <c r="E25">
-        <v>10.67594633909622</v>
+        <v>11.35674369070157</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36.38416765993618</v>
+        <v>46.08838042884808</v>
       </c>
       <c r="H25">
-        <v>15.16381730968904</v>
+        <v>12.48590379424523</v>
       </c>
       <c r="I25">
-        <v>21.08873798707014</v>
+        <v>17.30539393511555</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.98234689642252</v>
+        <v>20.98673279092832</v>
       </c>
       <c r="N25">
-        <v>17.11311608575199</v>
+        <v>10.5810746468107</v>
       </c>
       <c r="O25">
         <v>0</v>
